--- a/mapping/tcga-melanoma-mapping-spec.xlsx
+++ b/mapping/tcga-melanoma-mapping-spec.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tcgaparse-master\clinical\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mec175/git/deepPheOntologies/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34500" windowHeight="18840"/>
   </bookViews>
   <sheets>
     <sheet name="melconf" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="127">
   <si>
     <t>bcr_patient_barcode</t>
   </si>
@@ -363,37 +371,49 @@
     <t>Vital Status</t>
   </si>
   <si>
-    <t>Demographic</t>
-  </si>
-  <si>
     <t>Person Birth Date Less Initial Pathologic Diagnosis Date (Calculated Day Value)</t>
   </si>
   <si>
     <t>Primary Site+Stage of Disease</t>
   </si>
   <si>
-    <t>Outcomes</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Primary Site+Cancer Identification</t>
-  </si>
-  <si>
-    <t>Progression</t>
-  </si>
-  <si>
-    <t>Treatment+Radiation</t>
-  </si>
-  <si>
     <t>tcga-melanoma.txt</t>
+  </si>
+  <si>
+    <t>Other Columns</t>
+  </si>
+  <si>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>MelanomaPrimaryTumor</t>
+  </si>
+  <si>
+    <t>hasBodySite</t>
+  </si>
+  <si>
+    <t>Tumor+ Tumor Phenotype</t>
+  </si>
+  <si>
+    <t>hasDiagnosis</t>
+  </si>
+  <si>
+    <t>hasPathologicNClassification</t>
+  </si>
+  <si>
+    <t>hasPathologicTClassification</t>
+  </si>
+  <si>
+    <t>hasPathologicMClassification</t>
+  </si>
+  <si>
+    <t>MelanomaCancerPhenotype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1196,26 +1216,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="82.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" customWidth="1"/>
+    <col min="5" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1253,9 +1274,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1270,9 +1294,9 @@
         <v>2673794</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>94</v>
@@ -1290,12 +1314,12 @@
         <v>3288361</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1309,13 +1333,19 @@
       <c r="I4">
         <v>3226281</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1330,12 +1360,12 @@
         <v>3226275</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1350,9 +1380,9 @@
         <v>3226287</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>94</v>
@@ -1370,9 +1400,9 @@
         <v>3088492</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>94</v>
@@ -1390,18 +1420,18 @@
         <v>3088528</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
         <v>7</v>
@@ -1410,12 +1440,12 @@
         <v>3008233</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1430,12 +1460,12 @@
         <v>2200604</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1450,12 +1480,12 @@
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1470,12 +1500,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1490,12 +1520,12 @@
         <v>2192199</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1510,12 +1540,12 @@
         <v>2192217</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1530,12 +1560,12 @@
         <v>3382736</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1550,12 +1580,12 @@
         <v>3382737</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1570,12 +1600,12 @@
         <v>2759550</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1590,12 +1620,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1610,12 +1640,12 @@
         <v>3165475</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1629,13 +1659,19 @@
       <c r="I20">
         <v>3108462</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1650,12 +1686,12 @@
         <v>64186</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1669,13 +1705,19 @@
       <c r="I22">
         <v>3427536</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1690,12 +1732,12 @@
         <v>3427609</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1710,12 +1752,12 @@
         <v>2593055</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1730,12 +1772,12 @@
         <v>2593051</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1750,12 +1792,12 @@
         <v>3108478</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1770,12 +1812,12 @@
         <v>3119292</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1790,12 +1832,12 @@
         <v>3131740</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1810,12 +1852,12 @@
         <v>2006657</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1830,12 +1872,12 @@
         <v>2896960</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1850,12 +1892,12 @@
         <v>2722309</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1870,12 +1912,12 @@
         <v>3203222</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1889,13 +1931,19 @@
       <c r="I33">
         <v>3045435</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>126</v>
+      </c>
+      <c r="L33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1909,13 +1957,16 @@
       <c r="I34">
         <v>3203106</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1929,13 +1980,16 @@
       <c r="I35">
         <v>3045439</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1950,12 +2004,12 @@
         <v>3430945</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1970,12 +2024,12 @@
         <v>3427536</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1990,12 +2044,12 @@
         <v>3108474</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -2010,12 +2064,12 @@
         <v>3119700</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -2030,12 +2084,12 @@
         <v>2005312</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2050,12 +2104,12 @@
         <v>3397567</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>41</v>
@@ -2070,12 +2124,12 @@
         <v>3427563</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>42</v>
@@ -2090,12 +2144,12 @@
         <v>3430936</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C44">
         <v>43</v>
@@ -2110,12 +2164,12 @@
         <v>3427578</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>44</v>
@@ -2130,12 +2184,12 @@
         <v>3430936</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C46">
         <v>45</v>
@@ -2150,12 +2204,12 @@
         <v>3427578</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C47">
         <v>46</v>
@@ -2170,9 +2224,9 @@
         <v>3427610</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
         <v>94</v>
@@ -2190,9 +2244,9 @@
         <v>2975716</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
         <v>94</v>
@@ -2210,9 +2264,9 @@
         <v>2975718</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
         <v>94</v>
@@ -2230,12 +2284,12 @@
         <v>2975720</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C51">
         <v>50</v>
@@ -2250,12 +2304,12 @@
         <v>3008313</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C52">
         <v>51</v>
@@ -2270,12 +2324,12 @@
         <v>3008333</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C53">
         <v>52</v>
@@ -2290,12 +2344,12 @@
         <v>2721441</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C54">
         <v>53</v>
@@ -2310,12 +2364,12 @@
         <v>61446</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C55">
         <v>54</v>
@@ -2330,12 +2384,12 @@
         <v>61465</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C56">
         <v>55</v>
@@ -2350,12 +2404,12 @@
         <v>2793522</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C57">
         <v>56</v>
@@ -2370,12 +2424,12 @@
         <v>2842745</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C58">
         <v>57</v>
@@ -2390,9 +2444,9 @@
         <v>2857291</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
         <v>94</v>
@@ -2410,9 +2464,9 @@
         <v>2975716</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
         <v>94</v>
@@ -2430,9 +2484,9 @@
         <v>2975718</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
         <v>94</v>
